--- a/2022 강수.xlsx
+++ b/2022 강수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyena\data_journalism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E8DE20-6F36-4097-BFB6-B1A56E3842BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E15513-8472-46EF-93E6-2126F655E64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6D07F1E-BA71-49F3-9063-0F8A3FED68EB}"/>
   </bookViews>
@@ -36,17 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>서울</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>포항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022 강수합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,30 +407,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEB5F72-5155-4071-9A7C-55E9C2F5CE47}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1770</v>
       </c>
       <c r="B2">
-        <v>1770</v>
-      </c>
-      <c r="C2">
         <v>1055</v>
       </c>
     </row>
